--- a/biology/Zoologie/Bufo_verrucosissimus/Bufo_verrucosissimus.xlsx
+++ b/biology/Zoologie/Bufo_verrucosissimus/Bufo_verrucosissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufo verrucosissimus, ou Crapaud du Caucase, est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufo verrucosissimus, ou Crapaud du Caucase, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 900 m d'altitude sur les bords de la mer Noire et de la mer Caspienne[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 900 m d'altitude sur les bords de la mer Noire et de la mer Caspienne :
 en Russie en Ciscaucasie ;
 en Turquie ;
 en Iran ;
@@ -521,7 +535,7 @@
 en Géorgie ;
 en Syrie ;
 au Liban.
-Elle vit dans les forêts de conifères, mixtes et décidues de montagne. Elle préfère les endroits humides et sombres[2].
+Elle vit dans les forêts de conifères, mixtes et décidues de montagne. Elle préfère les endroits humides et sombres.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufo verrucosissimus mesure de 70 à 190 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufo verrucosissimus mesure de 70 à 190 mm.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crapaud du Caucase est inscrit à la liste des espèces protégées du Livre rouge de Russie.
 </t>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pallas, 1814 : Zoographia rosso-asiatica: sistens omnium animalium in extenso imperio rossico, et adjacentibus maribus observatorum recensionem, domicilia, mores et descriptiones, anatomen atque icones plurimorum, vol. 3, p. 1-428 (texte intégral).</t>
         </is>
